--- a/medicine/Psychotrope/Sahti/Sahti.xlsx
+++ b/medicine/Psychotrope/Sahti/Sahti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sahti (du germanique saft, « jus ») est une boisson fermentée de Finlande, spécialité traditionnelle protégée géographiquement en Europe[1]. 
+Le sahti (du germanique saft, « jus ») est une boisson fermentée de Finlande, spécialité traditionnelle protégée géographiquement en Europe. 
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bière traditionnelle est brassée dans les foyers à partir de plusieurs céréales maltées ou non (orge, seigle, froment, et avoine). Elle est parfois confectionnée à partir de pain.
 Le sahti est aromatisé avec des baies de genièvre en plus ou en lieu et place du houblon ; les branches du genévrier servent aussi à la filtration. Il s'agit d'un breuvage de fermentation haute qui reste fragile à la température car malgré une longue infusion, le moût n'est pas suffisamment chauffé, lui donnant parfois un goût aigre.
 Le sahti est une bière forte (6 à 12 % d'alcool en vol.), trouble, sombre, avec un goût de banane dû à l'action de la levure. 
-Le sahti est placé sous la catégorie 23 des bières de spécialité du Beer Judge Certification Program (en)[2].
+Le sahti est placé sous la catégorie 23 des bières de spécialité du Beer Judge Certification Program (en).
 Récemment, c'est devenu une boisson commercialisée, uniquement en pub ou magasins d'État (Alko).
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Bières apparentées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe des bières apparentées:
 sur l'île de Gotland: "Gotlandsdricke", "Gotlandsdricku" ou "Dricku".
@@ -579,7 +595,9 @@
           <t>Les producteurs finlandais de sahti</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Beer Hunter´s (Pori)
 Finlandia Sahti KY
